--- a/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,29</t>
+          <t>0,26; 2,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,58</t>
+          <t>2,26; 5,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,56</t>
+          <t>1,5; 3,37</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,17; 1,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,62</t>
+          <t>1,43; 3,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,25</t>
+          <t>0,89; 2,16</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,06</t>
+          <t>0,72; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,38</t>
+          <t>0,69; 2,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,5</t>
+          <t>0,96; 2,38</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,06</t>
+          <t>0,19; 1,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,52</t>
+          <t>0,33; 1,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,37</t>
+          <t>0,39; 1,4</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,32</t>
+          <t>0,25; 2,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,28</t>
+          <t>0,13; 1,19</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,45</t>
+          <t>1,18; 3,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,2</t>
+          <t>3,02; 6,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,28</t>
+          <t>2,41; 4,32</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,12; 1,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,81</t>
+          <t>1,01; 2,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,44</t>
+          <t>0,0; 0,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,17</t>
+          <t>0,29; 1,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,68</t>
+          <t>0,16; 0,68</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,93</t>
+          <t>0,48; 0,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,04</t>
+          <t>1,38; 2,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">

--- a/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,53</t>
+          <t>0,27; 2,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,5</t>
+          <t>2,35; 5,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,37</t>
+          <t>1,58; 3,56</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,56</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,71</t>
+          <t>1,36; 3,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,16</t>
+          <t>0,99; 2,25</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,93</t>
+          <t>0,86; 3,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,41</t>
+          <t>0,61; 2,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,38</t>
+          <t>0,96; 2,5</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,83</t>
+          <t>0,22; 2,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,56</t>
+          <t>0,37; 1,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,4</t>
+          <t>0,41; 1,37</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,3</t>
+          <t>0,25; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,19</t>
+          <t>0,13; 1,28</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,45</t>
+          <t>1,17; 3,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,31</t>
+          <t>3,0; 6,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,32</t>
+          <t>2,38; 4,28</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,01</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,78</t>
+          <t>0,99; 2,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,32</t>
+          <t>0,3; 1,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,68</t>
+          <t>0,17; 0,68</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,92</t>
+          <t>0,48; 0,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,03</t>
+          <t>1,35; 2,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">

--- a/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,29</t>
+          <t>0,24; 2,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,58</t>
+          <t>2,23; 5,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,56</t>
+          <t>1,44; 3,29</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,16; 1,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,62</t>
+          <t>1,29; 3,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,25</t>
+          <t>0,92; 2,1</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,06</t>
+          <t>0,83; 2,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,38</t>
+          <t>0,6; 2,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,5</t>
+          <t>0,93; 2,44</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,06</t>
+          <t>0,22; 2,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,52</t>
+          <t>0,28; 1,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,37</t>
+          <t>0,35; 1,26</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,32</t>
+          <t>0,25; 2,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,28</t>
+          <t>0,13; 1,18</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,45</t>
+          <t>1,14; 3,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,2</t>
+          <t>3,01; 6,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,28</t>
+          <t>2,35; 4,21</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,81</t>
+          <t>0,69; 2,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,75</t>
+          <t>0,59; 1,56</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,44</t>
+          <t>0,0; 0,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,68</t>
+          <t>0,13; 0,61</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,93</t>
+          <t>0,43; 0,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,04</t>
+          <t>1,24; 1,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,42</t>
+          <t>0,93; 1,34</t>
         </is>
       </c>
     </row>
